--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,54 +467,250 @@
     <t>ManufacturedItemDefinition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-identifier}
 </t>
   </si>
   <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Unique identifier.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>The rules of the identifier.type  determine if a check digit is part of the ID value or sent separately, such as through the checkDigit extension.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ident-1:Identifier with no value has limited utility.  If communicating that an identifier value has been suppressed or missing, the value element SHOULD be present with an extension indicating the missing semantic - e.g. data-absent-reason {value.exists()}</t>
+  </si>
+  <si>
+    <t>n/a,II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>ManufacturedItemDefinition.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this item. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of manufactured items that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.name</t>
+    <t>ManufacturedItemDefinition.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/GRZ</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.value</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this item. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of manufactured items that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.name</t>
+  </si>
+  <si>
     <t>A descriptive name applied to this item</t>
   </si>
   <si>
     <t>A descriptive name applied to this item.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
@@ -548,10 +744,6 @@
     <t>ManufacturedItemDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Manufacturer of the item, one of several possible</t>
   </si>
   <si>
@@ -577,10 +769,6 @@
     <t>ManufacturedItemDefinition.ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>The ingredients of this manufactured item. Only needed if these are not specified by incoming references from the Ingredient resource</t>
   </si>
   <si>
@@ -618,26 +806,7 @@
     <t>ManufacturedItemDefinition.property.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.property.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.property.modifierExtension</t>
@@ -1110,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1138,16 +1307,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.09765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="61.98046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1156,7 +1325,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="61.49609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="147.234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2288,10 +2457,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2300,7 +2469,7 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -2311,7 +2480,9 @@
       <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2372,24 +2543,24 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2397,7 +2568,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
@@ -2406,23 +2577,21 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2432,67 +2601,67 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="T12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -2504,14 +2673,14 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2520,18 +2689,20 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -2568,48 +2739,48 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2617,7 +2788,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
@@ -2626,24 +2797,26 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2669,9 +2842,11 @@
       <c r="X14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y14" s="2"/>
+      <c r="Y14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2689,10 +2864,10 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>85</v>
@@ -2710,15 +2885,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2738,21 +2913,23 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2776,11 +2953,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2798,7 +2977,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2819,15 +2998,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2835,10 +3014,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2850,16 +3029,20 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2868,10 +3051,10 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -2907,13 +3090,13 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -2925,18 +3108,18 @@
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2944,10 +3127,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2959,15 +3142,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -2980,7 +3165,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3016,16 +3201,16 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>97</v>
@@ -3034,18 +3219,18 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3056,7 +3241,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3068,13 +3253,13 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3101,13 +3286,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -3125,13 +3310,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3143,18 +3328,18 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3165,7 +3350,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3177,15 +3362,17 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3234,13 +3421,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
@@ -3252,18 +3439,18 @@
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3271,7 +3458,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
@@ -3280,21 +3467,23 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3304,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>74</v>
@@ -3319,13 +3508,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3343,47 +3532,47 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3392,20 +3581,18 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3454,72 +3641,70 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3543,13 +3728,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3567,19 +3750,19 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3588,15 +3771,15 @@
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3604,7 +3787,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>85</v>
@@ -3616,18 +3799,20 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3652,13 +3837,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3676,10 +3859,10 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>85</v>
@@ -3694,18 +3877,18 @@
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3716,7 +3899,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3728,13 +3911,13 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3785,13 +3968,13 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -3803,7 +3986,7 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -3811,10 +3994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3837,13 +4020,13 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3894,7 +4077,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3912,7 +4095,7 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -3920,10 +4103,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3934,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3943,16 +4126,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3979,13 +4162,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4003,40 +4186,40 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4052,20 +4235,18 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4114,7 +4295,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4126,60 +4307,56 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4227,19 +4404,19 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4248,26 +4425,26 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4276,18 +4453,20 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4336,40 +4515,40 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4382,22 +4561,26 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4445,7 +4628,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4457,7 +4640,7 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4466,15 +4649,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4482,10 +4665,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4497,13 +4680,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4530,13 +4713,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -4554,13 +4737,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
@@ -4572,7 +4755,7 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4580,10 +4763,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4594,7 +4777,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4606,13 +4789,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4663,13 +4846,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -4681,7 +4864,7 @@
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -4689,10 +4872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4703,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4712,16 +4895,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4772,47 +4955,47 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -4824,17 +5007,15 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -4883,19 +5064,19 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -4904,19 +5085,19 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4929,26 +5110,24 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -4996,7 +5175,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5017,19 +5196,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5042,22 +5221,26 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5105,7 +5288,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5117,7 +5300,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5126,15 +5309,15 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5142,10 +5325,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5157,13 +5340,13 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5214,13 +5397,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5232,7 +5415,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5240,10 +5423,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5266,13 +5449,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5323,7 +5506,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5349,10 +5532,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5375,13 +5558,13 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5432,7 +5615,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5458,10 +5641,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5484,13 +5667,13 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5541,7 +5724,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5567,10 +5750,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5581,7 +5764,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5590,16 +5773,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5650,27 +5833,905 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -598,7 +598,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ages.at/fhir/GRZ</t>
+    <t>https://www.ages.at/fhir/referenceNumber</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-manufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
